--- a/files/synthetic/invoice_synth_2.xlsx
+++ b/files/synthetic/invoice_synth_2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,21 +424,28 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Due Date: 04/12/2024</t>
+          <t>Date: 03/18/2024</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Client Name: Jane Doe</t>
+          <t>Amount Due: $2645.68</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PO Number: 4069</t>
+          <t>Invoice Number: 3887</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Payment Terms: 3950</t>
         </is>
       </c>
     </row>
